--- a/Publication/SkillMatrix.xlsx
+++ b/Publication/SkillMatrix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/petermoore/Documents/GitHub/VacationVision/Publication/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3D9CBF-C59D-8443-A67F-07C39CB7CA35}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46626644-ED1F-1947-97DE-F636C6622CB3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" xr2:uid="{14EC6DA2-9A5B-2C4E-9778-4117A707BC64}"/>
   </bookViews>
@@ -48,9 +48,6 @@
     <t>Python</t>
   </si>
   <si>
-    <t>a</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -61,25 +58,22 @@
   </si>
   <si>
     <t>nltk</t>
+  </si>
+  <si>
+    <t>Y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Webdings"/>
-      <charset val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -102,9 +96,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EB69716-C2C0-6643-88AD-6A98FE69D65F}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B8:B24"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,141 +440,65 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1"/>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1"/>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="1"/>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1"/>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
